--- a/input-instance/example-instance.xlsx
+++ b/input-instance/example-instance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yariv\GitHub\opdracht-optimalisatie-in-de-logistiek\input-instance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCE7E77-9C5F-464D-8EDD-0B4F96988651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66D18E4-4881-4ABF-B5F3-447594D1E2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4CA1519-F620-4A1D-89C8-4A27681EFA14}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
